--- a/upload_seed_data/data/origins/v3/{Albania}.{NAT_2008}.{sq}.xlsx
+++ b/upload_seed_data/data/origins/v3/{Albania}.{NAT_2008}.{sq}.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\! Project_삼성+\2025\4. 인증제\1.S25\4. 퀴즈\다국어 원본\최종_250120_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\! Project_삼성+\2025\4. 인증제\1.S25\4. 퀴즈\다국어 원본\최종_250121_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1682,10 +1682,28 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1694,12 +1712,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1707,6 +1719,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1718,33 +1766,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1752,27 +1773,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I146" sqref="I146:I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2103,7 +2103,7 @@
       <c r="E1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G1" s="10" t="s">
@@ -2127,10 +2127,10 @@
       <c r="M1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="28" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="13" t="s">
@@ -2138,35 +2138,35 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="29">
         <v>30</v>
       </c>
-      <c r="I2" s="27">
-        <v>1</v>
-      </c>
-      <c r="J2" s="27">
-        <v>1</v>
-      </c>
-      <c r="K2" s="32" t="s">
+      <c r="I2" s="29">
+        <v>1</v>
+      </c>
+      <c r="J2" s="29">
+        <v>1</v>
+      </c>
+      <c r="K2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -2175,112 +2175,112 @@
       <c r="M2" s="9">
         <v>1</v>
       </c>
-      <c r="N2" s="27">
-        <v>1</v>
-      </c>
-      <c r="O2" s="27">
-        <v>1</v>
-      </c>
-      <c r="P2" s="27" t="s">
+      <c r="N2" s="29">
+        <v>1</v>
+      </c>
+      <c r="O2" s="29">
+        <v>1</v>
+      </c>
+      <c r="P2" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="33"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="8" t="s">
         <v>152</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="8" t="s">
         <v>153</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="34"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="17" t="s">
         <v>154</v>
       </c>
       <c r="M5" s="9">
         <v>0</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="A6" s="29">
         <v>2</v>
       </c>
-      <c r="B6" s="27">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="29">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="29">
         <v>30</v>
       </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="I6" s="29">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
         <v>2</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="36" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -2289,112 +2289,112 @@
       <c r="M6" s="9">
         <v>1</v>
       </c>
-      <c r="N6" s="27">
-        <v>1</v>
-      </c>
-      <c r="O6" s="27">
+      <c r="N6" s="29">
+        <v>1</v>
+      </c>
+      <c r="O6" s="29">
         <v>2</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="33"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="37"/>
       <c r="L8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="9">
         <v>1</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="33"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="37"/>
       <c r="L9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M9" s="9">
         <v>1</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="29">
         <v>3</v>
       </c>
-      <c r="B10" s="27">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="29">
         <v>30</v>
       </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
-      <c r="J10" s="27">
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
         <v>3</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="39" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="17" t="s">
@@ -2403,112 +2403,112 @@
       <c r="M10" s="9">
         <v>0</v>
       </c>
-      <c r="N10" s="27">
-        <v>1</v>
-      </c>
-      <c r="O10" s="27">
+      <c r="N10" s="29">
+        <v>1</v>
+      </c>
+      <c r="O10" s="29">
         <v>3</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="P10" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="52"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="M11" s="9">
         <v>1</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="52"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="17" t="s">
         <v>148</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="53"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="17" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="9">
         <v>0</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="A14" s="29">
         <v>4</v>
       </c>
-      <c r="B14" s="27">
-        <v>1</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="29">
         <v>30</v>
       </c>
-      <c r="I14" s="27">
-        <v>1</v>
-      </c>
-      <c r="J14" s="27">
+      <c r="I14" s="29">
+        <v>1</v>
+      </c>
+      <c r="J14" s="29">
         <v>4</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="36" t="s">
         <v>160</v>
       </c>
       <c r="L14" s="17" t="s">
@@ -2517,112 +2517,112 @@
       <c r="M14" s="9">
         <v>0</v>
       </c>
-      <c r="N14" s="27">
-        <v>1</v>
-      </c>
-      <c r="O14" s="27">
+      <c r="N14" s="29">
+        <v>1</v>
+      </c>
+      <c r="O14" s="29">
         <v>4</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="P14" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="33"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="17" t="s">
         <v>155</v>
       </c>
       <c r="M15" s="9">
         <v>0</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="M16" s="9">
         <v>0</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="34"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="8" t="s">
         <v>157</v>
       </c>
       <c r="M17" s="9">
         <v>1</v>
       </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+      <c r="A18" s="29">
         <v>5</v>
       </c>
-      <c r="B18" s="27">
-        <v>1</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="29">
         <v>30</v>
       </c>
-      <c r="I18" s="27">
-        <v>1</v>
-      </c>
-      <c r="J18" s="27">
+      <c r="I18" s="29">
+        <v>1</v>
+      </c>
+      <c r="J18" s="29">
         <v>5</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="36" t="s">
         <v>141</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -2631,112 +2631,112 @@
       <c r="M18" s="9">
         <v>1</v>
       </c>
-      <c r="N18" s="27">
-        <v>1</v>
-      </c>
-      <c r="O18" s="27">
+      <c r="N18" s="29">
+        <v>1</v>
+      </c>
+      <c r="O18" s="29">
         <v>5</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="33"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="17" t="s">
         <v>149</v>
       </c>
       <c r="M19" s="9">
         <v>0</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="17" t="s">
         <v>9</v>
       </c>
       <c r="M20" s="9">
         <v>0</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="34"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="17" t="s">
         <v>10</v>
       </c>
       <c r="M21" s="9">
         <v>0</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+      <c r="A22" s="29">
         <v>6</v>
       </c>
-      <c r="B22" s="27">
-        <v>1</v>
-      </c>
-      <c r="C22" s="29" t="s">
+      <c r="B22" s="29">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="29"/>
+      <c r="F22" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="29">
         <v>30</v>
       </c>
-      <c r="I22" s="27">
-        <v>1</v>
-      </c>
-      <c r="J22" s="27">
+      <c r="I22" s="29">
+        <v>1</v>
+      </c>
+      <c r="J22" s="29">
         <v>6</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="46" t="s">
         <v>170</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -2745,112 +2745,112 @@
       <c r="M22" s="9">
         <v>0</v>
       </c>
-      <c r="N22" s="27">
-        <v>1</v>
-      </c>
-      <c r="O22" s="27">
-        <v>1</v>
-      </c>
-      <c r="P22" s="27" t="s">
+      <c r="N22" s="29">
+        <v>1</v>
+      </c>
+      <c r="O22" s="29">
+        <v>1</v>
+      </c>
+      <c r="P22" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="46"/>
       <c r="L23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="M23" s="9">
         <v>0</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="30"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="46"/>
       <c r="L24" s="4" t="s">
         <v>172</v>
       </c>
       <c r="M24" s="9">
         <v>0</v>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="30"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="46"/>
       <c r="L25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M25" s="9">
         <v>1</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+      <c r="A26" s="29">
         <v>7</v>
       </c>
-      <c r="B26" s="27">
-        <v>1</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="29">
+        <v>1</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="29" t="s">
+      <c r="E26" s="29"/>
+      <c r="F26" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="29">
         <v>30</v>
       </c>
-      <c r="I26" s="27">
-        <v>1</v>
-      </c>
-      <c r="J26" s="27">
+      <c r="I26" s="29">
+        <v>1</v>
+      </c>
+      <c r="J26" s="29">
         <v>7</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="46" t="s">
         <v>173</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -2859,110 +2859,110 @@
       <c r="M26" s="9">
         <v>0</v>
       </c>
-      <c r="N26" s="27">
-        <v>1</v>
-      </c>
-      <c r="O26" s="27">
+      <c r="N26" s="29">
+        <v>1</v>
+      </c>
+      <c r="O26" s="29">
         <v>2</v>
       </c>
-      <c r="P26" s="27" t="s">
+      <c r="P26" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="30"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="5" t="s">
         <v>175</v>
       </c>
       <c r="M27" s="9">
         <v>1</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="30"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="4" t="s">
         <v>176</v>
       </c>
       <c r="M28" s="9">
         <v>0</v>
       </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="30"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="46"/>
       <c r="L29" s="4" t="s">
         <v>177</v>
       </c>
       <c r="M29" s="9">
         <v>0</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+      <c r="A30" s="29">
         <v>8</v>
       </c>
-      <c r="B30" s="27">
-        <v>1</v>
-      </c>
-      <c r="C30" s="29" t="s">
+      <c r="B30" s="29">
+        <v>1</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28" t="s">
+      <c r="E30" s="29"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="29">
         <v>30</v>
       </c>
-      <c r="I30" s="27">
-        <v>1</v>
-      </c>
-      <c r="J30" s="27">
+      <c r="I30" s="29">
+        <v>1</v>
+      </c>
+      <c r="J30" s="29">
         <v>8</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="47" t="s">
         <v>178</v>
       </c>
       <c r="L30" s="6" t="s">
@@ -2971,110 +2971,110 @@
       <c r="M30" s="9">
         <v>0</v>
       </c>
-      <c r="N30" s="27">
-        <v>1</v>
-      </c>
-      <c r="O30" s="27">
+      <c r="N30" s="29">
+        <v>1</v>
+      </c>
+      <c r="O30" s="29">
         <v>3</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="15" t="s">
         <v>180</v>
       </c>
       <c r="M31" s="9">
         <v>0</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="16" t="s">
         <v>181</v>
       </c>
       <c r="M32" s="9">
         <v>1</v>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="31"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="47"/>
       <c r="L33" s="15" t="s">
         <v>182</v>
       </c>
       <c r="M33" s="9">
         <v>0</v>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
     </row>
     <row r="34" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27">
+      <c r="A34" s="29">
         <v>9</v>
       </c>
-      <c r="B34" s="27">
-        <v>1</v>
-      </c>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="29">
+        <v>1</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="29">
         <v>30</v>
       </c>
-      <c r="I34" s="27">
-        <v>1</v>
-      </c>
-      <c r="J34" s="27">
+      <c r="I34" s="29">
+        <v>1</v>
+      </c>
+      <c r="J34" s="29">
         <v>9</v>
       </c>
-      <c r="K34" s="38" t="s">
+      <c r="K34" s="33" t="s">
         <v>145</v>
       </c>
       <c r="L34" s="23" t="s">
@@ -3083,110 +3083,110 @@
       <c r="M34" s="9">
         <v>1</v>
       </c>
-      <c r="N34" s="27">
-        <v>1</v>
-      </c>
-      <c r="O34" s="27">
+      <c r="N34" s="29">
+        <v>1</v>
+      </c>
+      <c r="O34" s="29">
         <v>4</v>
       </c>
-      <c r="P34" s="27" t="s">
+      <c r="P34" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="45"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="31"/>
       <c r="L35" s="24" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="9">
         <v>0</v>
       </c>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="45"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="31"/>
       <c r="L36" s="24" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="9">
         <v>0</v>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
     </row>
     <row r="37" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="46"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="32"/>
       <c r="L37" s="24" t="s">
         <v>71</v>
       </c>
       <c r="M37" s="9">
         <v>0</v>
       </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27">
+      <c r="A38" s="29">
         <v>10</v>
       </c>
-      <c r="B38" s="27">
-        <v>1</v>
-      </c>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="29">
+        <v>1</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27" t="s">
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="29">
         <v>30</v>
       </c>
-      <c r="I38" s="27">
-        <v>1</v>
-      </c>
-      <c r="J38" s="27">
+      <c r="I38" s="29">
+        <v>1</v>
+      </c>
+      <c r="J38" s="29">
         <v>10</v>
       </c>
-      <c r="K38" s="44" t="s">
+      <c r="K38" s="30" t="s">
         <v>72</v>
       </c>
       <c r="L38" s="24" t="s">
@@ -3195,68 +3195,68 @@
       <c r="M38" s="9">
         <v>0</v>
       </c>
-      <c r="N38" s="27">
-        <v>1</v>
-      </c>
-      <c r="O38" s="27">
+      <c r="N38" s="29">
+        <v>1</v>
+      </c>
+      <c r="O38" s="29">
         <v>5</v>
       </c>
-      <c r="P38" s="27" t="s">
+      <c r="P38" s="29" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="45"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="31"/>
       <c r="L39" s="23" t="s">
         <v>74</v>
       </c>
       <c r="M39" s="9">
         <v>1</v>
       </c>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
+      <c r="A40" s="29">
         <v>11</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="29">
         <v>2</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27" t="s">
+      <c r="E40" s="29"/>
+      <c r="F40" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="29">
         <v>30</v>
       </c>
-      <c r="I40" s="27">
-        <v>1</v>
-      </c>
-      <c r="J40" s="27">
+      <c r="I40" s="29">
+        <v>1</v>
+      </c>
+      <c r="J40" s="29">
         <v>11</v>
       </c>
-      <c r="K40" s="50" t="s">
+      <c r="K40" s="42" t="s">
         <v>142</v>
       </c>
       <c r="L40" s="17" t="s">
@@ -3265,112 +3265,112 @@
       <c r="M40" s="9">
         <v>0</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N40" s="29">
         <v>2</v>
       </c>
-      <c r="O40" s="27">
-        <v>1</v>
-      </c>
-      <c r="P40" s="27" t="s">
+      <c r="O40" s="29">
+        <v>1</v>
+      </c>
+      <c r="P40" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="33"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="37"/>
       <c r="L41" s="17" t="s">
         <v>12</v>
       </c>
       <c r="M41" s="9">
         <v>0</v>
       </c>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="33"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="37"/>
       <c r="L42" s="17" t="s">
         <v>13</v>
       </c>
       <c r="M42" s="9">
         <v>0</v>
       </c>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="34"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="38"/>
       <c r="L43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="M43" s="9">
         <v>1</v>
       </c>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27">
+      <c r="A44" s="29">
         <v>12</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="29">
         <v>2</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27" t="s">
+      <c r="E44" s="29"/>
+      <c r="F44" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="29">
         <v>30</v>
       </c>
-      <c r="I44" s="27">
-        <v>1</v>
-      </c>
-      <c r="J44" s="27">
+      <c r="I44" s="29">
+        <v>1</v>
+      </c>
+      <c r="J44" s="29">
         <v>12</v>
       </c>
-      <c r="K44" s="32" t="s">
+      <c r="K44" s="36" t="s">
         <v>143</v>
       </c>
       <c r="L44" s="17" t="s">
@@ -3379,112 +3379,112 @@
       <c r="M44" s="9">
         <v>0</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N44" s="29">
         <v>2</v>
       </c>
-      <c r="O44" s="27">
+      <c r="O44" s="29">
         <v>2</v>
       </c>
-      <c r="P44" s="27" t="s">
+      <c r="P44" s="29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="33"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="37"/>
       <c r="L45" s="8" t="s">
         <v>7</v>
       </c>
       <c r="M45" s="9">
         <v>1</v>
       </c>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="33"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="37"/>
       <c r="L46" s="8" t="s">
         <v>16</v>
       </c>
       <c r="M46" s="9">
         <v>1</v>
       </c>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="34"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="38"/>
       <c r="L47" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M47" s="9">
         <v>1</v>
       </c>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27">
+      <c r="A48" s="29">
         <v>13</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="29">
         <v>2</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27" t="s">
+      <c r="E48" s="29"/>
+      <c r="F48" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="29">
         <v>30</v>
       </c>
-      <c r="I48" s="27">
-        <v>1</v>
-      </c>
-      <c r="J48" s="27">
+      <c r="I48" s="29">
+        <v>1</v>
+      </c>
+      <c r="J48" s="29">
         <v>13</v>
       </c>
-      <c r="K48" s="32" t="s">
+      <c r="K48" s="36" t="s">
         <v>18</v>
       </c>
       <c r="L48" s="8" t="s">
@@ -3493,112 +3493,112 @@
       <c r="M48" s="9">
         <v>1</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="29">
         <v>2</v>
       </c>
-      <c r="O48" s="27">
+      <c r="O48" s="29">
         <v>3</v>
       </c>
-      <c r="P48" s="27" t="s">
+      <c r="P48" s="29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="33"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="37"/>
       <c r="L49" s="8" t="s">
         <v>19</v>
       </c>
       <c r="M49" s="9">
         <v>1</v>
       </c>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="33"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="37"/>
       <c r="L50" s="17" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="9">
         <v>0</v>
       </c>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="34"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="38"/>
       <c r="L51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M51" s="9">
         <v>1</v>
       </c>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27">
+      <c r="A52" s="29">
         <v>14</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="29">
         <v>2</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27" t="s">
+      <c r="E52" s="29"/>
+      <c r="F52" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="27">
+      <c r="H52" s="29">
         <v>30</v>
       </c>
-      <c r="I52" s="27">
-        <v>1</v>
-      </c>
-      <c r="J52" s="27">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+      <c r="J52" s="29">
         <v>14</v>
       </c>
-      <c r="K52" s="32" t="s">
+      <c r="K52" s="36" t="s">
         <v>22</v>
       </c>
       <c r="L52" s="17" t="s">
@@ -3607,112 +3607,112 @@
       <c r="M52" s="9">
         <v>0</v>
       </c>
-      <c r="N52" s="27">
+      <c r="N52" s="29">
         <v>2</v>
       </c>
-      <c r="O52" s="27">
+      <c r="O52" s="29">
         <v>4</v>
       </c>
-      <c r="P52" s="27" t="s">
+      <c r="P52" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="33"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="37"/>
       <c r="L53" s="17" t="s">
         <v>24</v>
       </c>
       <c r="M53" s="9">
         <v>0</v>
       </c>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="33"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="37"/>
       <c r="L54" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M54" s="9">
         <v>0</v>
       </c>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="34"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="38"/>
       <c r="L55" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M55" s="9">
         <v>1</v>
       </c>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27">
+      <c r="A56" s="29">
         <v>15</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="29">
         <v>2</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27" t="s">
+      <c r="E56" s="29"/>
+      <c r="F56" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="G56" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H56" s="27">
+      <c r="H56" s="29">
         <v>30</v>
       </c>
-      <c r="I56" s="27">
-        <v>1</v>
-      </c>
-      <c r="J56" s="27">
+      <c r="I56" s="29">
+        <v>1</v>
+      </c>
+      <c r="J56" s="29">
         <v>15</v>
       </c>
-      <c r="K56" s="32" t="s">
+      <c r="K56" s="36" t="s">
         <v>161</v>
       </c>
       <c r="L56" s="8" t="s">
@@ -3721,112 +3721,112 @@
       <c r="M56" s="9">
         <v>1</v>
       </c>
-      <c r="N56" s="27">
+      <c r="N56" s="29">
         <v>2</v>
       </c>
-      <c r="O56" s="27">
+      <c r="O56" s="29">
         <v>5</v>
       </c>
-      <c r="P56" s="27" t="s">
+      <c r="P56" s="29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="33"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="37"/>
       <c r="L57" s="17" t="s">
         <v>27</v>
       </c>
       <c r="M57" s="9">
         <v>0</v>
       </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
     </row>
     <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="33"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="37"/>
       <c r="L58" s="8" t="s">
         <v>158</v>
       </c>
       <c r="M58" s="9">
         <v>1</v>
       </c>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
     </row>
     <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="34"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="38"/>
       <c r="L59" s="8" t="s">
         <v>159</v>
       </c>
       <c r="M59" s="9">
         <v>1</v>
       </c>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
     </row>
     <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27">
+      <c r="A60" s="29">
         <v>16</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="29">
         <v>2</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="29" t="s">
+      <c r="E60" s="29"/>
+      <c r="F60" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G60" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H60" s="29">
         <v>30</v>
       </c>
-      <c r="I60" s="27">
-        <v>1</v>
-      </c>
-      <c r="J60" s="27">
+      <c r="I60" s="29">
+        <v>1</v>
+      </c>
+      <c r="J60" s="29">
         <v>16</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K60" s="46" t="s">
         <v>186</v>
       </c>
       <c r="L60" s="4" t="s">
@@ -3835,112 +3835,112 @@
       <c r="M60" s="9">
         <v>0</v>
       </c>
-      <c r="N60" s="27">
+      <c r="N60" s="29">
         <v>2</v>
       </c>
-      <c r="O60" s="27">
-        <v>1</v>
-      </c>
-      <c r="P60" s="27" t="s">
+      <c r="O60" s="29">
+        <v>1</v>
+      </c>
+      <c r="P60" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="46"/>
       <c r="L61" s="4" t="s">
         <v>188</v>
       </c>
       <c r="M61" s="9">
         <v>0</v>
       </c>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="30"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="46"/>
       <c r="L62" s="5" t="s">
         <v>189</v>
       </c>
       <c r="M62" s="9">
         <v>1</v>
       </c>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="30"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="46"/>
       <c r="L63" s="4" t="s">
         <v>190</v>
       </c>
       <c r="M63" s="9">
         <v>0</v>
       </c>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27">
+      <c r="A64" s="29">
         <v>17</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="29">
         <v>2</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="29" t="s">
+      <c r="E64" s="29"/>
+      <c r="F64" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G64" s="28" t="s">
+      <c r="G64" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H64" s="27">
+      <c r="H64" s="29">
         <v>30</v>
       </c>
-      <c r="I64" s="27">
-        <v>1</v>
-      </c>
-      <c r="J64" s="27">
+      <c r="I64" s="29">
+        <v>1</v>
+      </c>
+      <c r="J64" s="29">
         <v>17</v>
       </c>
-      <c r="K64" s="30" t="s">
+      <c r="K64" s="46" t="s">
         <v>191</v>
       </c>
       <c r="L64" s="4" t="s">
@@ -3949,110 +3949,110 @@
       <c r="M64" s="9">
         <v>0</v>
       </c>
-      <c r="N64" s="27">
+      <c r="N64" s="29">
         <v>2</v>
       </c>
-      <c r="O64" s="27">
+      <c r="O64" s="29">
         <v>2</v>
       </c>
-      <c r="P64" s="27" t="s">
+      <c r="P64" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="30"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="46"/>
       <c r="L65" s="4" t="s">
         <v>192</v>
       </c>
       <c r="M65" s="9">
         <v>0</v>
       </c>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="30"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="46"/>
       <c r="L66" s="4" t="s">
         <v>193</v>
       </c>
       <c r="M66" s="9">
         <v>0</v>
       </c>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
     </row>
     <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="30"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="46"/>
       <c r="L67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M67" s="9">
         <v>1</v>
       </c>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
     </row>
     <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27">
+      <c r="A68" s="29">
         <v>18</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="29">
         <v>2</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="28" t="s">
+      <c r="E68" s="29"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="H68" s="27">
+      <c r="H68" s="29">
         <v>30</v>
       </c>
-      <c r="I68" s="27">
-        <v>1</v>
-      </c>
-      <c r="J68" s="27">
+      <c r="I68" s="29">
+        <v>1</v>
+      </c>
+      <c r="J68" s="29">
         <v>18</v>
       </c>
-      <c r="K68" s="31" t="s">
+      <c r="K68" s="47" t="s">
         <v>194</v>
       </c>
       <c r="L68" s="6" t="s">
@@ -4061,110 +4061,110 @@
       <c r="M68" s="9">
         <v>0</v>
       </c>
-      <c r="N68" s="27">
+      <c r="N68" s="29">
         <v>2</v>
       </c>
-      <c r="O68" s="27">
+      <c r="O68" s="29">
         <v>3</v>
       </c>
-      <c r="P68" s="27" t="s">
+      <c r="P68" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="31"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="47"/>
       <c r="L69" s="16" t="s">
         <v>196</v>
       </c>
       <c r="M69" s="9">
         <v>1</v>
       </c>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
     </row>
     <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="31"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="47"/>
       <c r="L70" s="6" t="s">
         <v>197</v>
       </c>
       <c r="M70" s="9">
         <v>0</v>
       </c>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
     </row>
     <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="31"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="47"/>
       <c r="L71" s="6" t="s">
         <v>198</v>
       </c>
       <c r="M71" s="9">
         <v>0</v>
       </c>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
     </row>
     <row r="72" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="27">
+      <c r="A72" s="29">
         <v>19</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72" s="29">
         <v>2</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27" t="s">
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H72" s="27">
+      <c r="H72" s="29">
         <v>30</v>
       </c>
-      <c r="I72" s="27">
-        <v>1</v>
-      </c>
-      <c r="J72" s="27">
+      <c r="I72" s="29">
+        <v>1</v>
+      </c>
+      <c r="J72" s="29">
         <v>19</v>
       </c>
-      <c r="K72" s="44" t="s">
+      <c r="K72" s="30" t="s">
         <v>75</v>
       </c>
       <c r="L72" s="24" t="s">
@@ -4173,110 +4173,110 @@
       <c r="M72" s="9">
         <v>0</v>
       </c>
-      <c r="N72" s="27">
+      <c r="N72" s="29">
         <v>2</v>
       </c>
-      <c r="O72" s="27">
+      <c r="O72" s="29">
         <v>4</v>
       </c>
-      <c r="P72" s="27" t="s">
+      <c r="P72" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="45"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="31"/>
       <c r="L73" s="23" t="s">
         <v>58</v>
       </c>
       <c r="M73" s="9">
         <v>1</v>
       </c>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
     </row>
     <row r="74" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="45"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="31"/>
       <c r="L74" s="24" t="s">
         <v>76</v>
       </c>
       <c r="M74" s="9">
         <v>0</v>
       </c>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
     </row>
     <row r="75" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="46"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="32"/>
       <c r="L75" s="24" t="s">
         <v>66</v>
       </c>
       <c r="M75" s="9">
         <v>0</v>
       </c>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
     </row>
     <row r="76" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="27">
+      <c r="A76" s="29">
         <v>20</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="29">
         <v>2</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27" t="s">
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H76" s="27">
+      <c r="H76" s="29">
         <v>30</v>
       </c>
-      <c r="I76" s="27">
-        <v>1</v>
-      </c>
-      <c r="J76" s="27">
+      <c r="I76" s="29">
+        <v>1</v>
+      </c>
+      <c r="J76" s="29">
         <v>20</v>
       </c>
-      <c r="K76" s="44" t="s">
+      <c r="K76" s="30" t="s">
         <v>77</v>
       </c>
       <c r="L76" s="23" t="s">
@@ -4285,68 +4285,68 @@
       <c r="M76" s="9">
         <v>1</v>
       </c>
-      <c r="N76" s="27">
+      <c r="N76" s="29">
         <v>2</v>
       </c>
-      <c r="O76" s="27">
+      <c r="O76" s="29">
         <v>5</v>
       </c>
-      <c r="P76" s="27" t="s">
+      <c r="P76" s="29" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="46"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="32"/>
       <c r="L77" s="24" t="s">
         <v>79</v>
       </c>
       <c r="M77" s="9">
         <v>0</v>
       </c>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
     </row>
     <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="27">
+      <c r="A78" s="29">
         <v>21</v>
       </c>
-      <c r="B78" s="27">
+      <c r="B78" s="29">
         <v>3</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27" t="s">
+      <c r="E78" s="29"/>
+      <c r="F78" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G78" s="27" t="s">
+      <c r="G78" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="27">
+      <c r="H78" s="29">
         <v>30</v>
       </c>
-      <c r="I78" s="27">
-        <v>1</v>
-      </c>
-      <c r="J78" s="27">
+      <c r="I78" s="29">
+        <v>1</v>
+      </c>
+      <c r="J78" s="29">
         <v>21</v>
       </c>
-      <c r="K78" s="41" t="s">
+      <c r="K78" s="43" t="s">
         <v>28</v>
       </c>
       <c r="L78" s="3" t="s">
@@ -4355,112 +4355,112 @@
       <c r="M78" s="9">
         <v>0</v>
       </c>
-      <c r="N78" s="27">
+      <c r="N78" s="29">
         <v>3</v>
       </c>
-      <c r="O78" s="27">
-        <v>1</v>
-      </c>
-      <c r="P78" s="27" t="s">
+      <c r="O78" s="29">
+        <v>1</v>
+      </c>
+      <c r="P78" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="42"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="44"/>
       <c r="L79" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M79" s="9">
         <v>0</v>
       </c>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="42"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="44"/>
       <c r="L80" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M80" s="9">
         <v>0</v>
       </c>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
     </row>
     <row r="81" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="43"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="45"/>
       <c r="L81" s="23" t="s">
         <v>14</v>
       </c>
       <c r="M81" s="9">
         <v>1</v>
       </c>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
     </row>
     <row r="82" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27">
+      <c r="A82" s="29">
         <v>22</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="29">
         <v>3</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27" t="s">
+      <c r="E82" s="29"/>
+      <c r="F82" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G82" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H82" s="27">
+      <c r="H82" s="29">
         <v>30</v>
       </c>
-      <c r="I82" s="27">
-        <v>1</v>
-      </c>
-      <c r="J82" s="27">
+      <c r="I82" s="29">
+        <v>1</v>
+      </c>
+      <c r="J82" s="29">
         <v>22</v>
       </c>
-      <c r="K82" s="41" t="s">
+      <c r="K82" s="43" t="s">
         <v>29</v>
       </c>
       <c r="L82" s="23" t="s">
@@ -4469,112 +4469,112 @@
       <c r="M82" s="9">
         <v>1</v>
       </c>
-      <c r="N82" s="27">
+      <c r="N82" s="29">
         <v>3</v>
       </c>
-      <c r="O82" s="27">
+      <c r="O82" s="29">
         <v>2</v>
       </c>
-      <c r="P82" s="27" t="s">
+      <c r="P82" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="42"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="44"/>
       <c r="L83" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M83" s="9">
         <v>0</v>
       </c>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
     </row>
     <row r="84" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="42"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="44"/>
       <c r="L84" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M84" s="9">
         <v>0</v>
       </c>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
     </row>
     <row r="85" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="43"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="45"/>
       <c r="L85" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M85" s="9">
         <v>0</v>
       </c>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
     </row>
     <row r="86" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="27">
+      <c r="A86" s="29">
         <v>23</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86" s="29">
         <v>3</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27" t="s">
+      <c r="E86" s="29"/>
+      <c r="F86" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="G86" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H86" s="29">
         <v>30</v>
       </c>
-      <c r="I86" s="27">
-        <v>1</v>
-      </c>
-      <c r="J86" s="27">
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+      <c r="J86" s="29">
         <v>23</v>
       </c>
-      <c r="K86" s="41" t="s">
+      <c r="K86" s="43" t="s">
         <v>34</v>
       </c>
       <c r="L86" s="23" t="s">
@@ -4583,112 +4583,112 @@
       <c r="M86" s="9">
         <v>1</v>
       </c>
-      <c r="N86" s="27">
+      <c r="N86" s="29">
         <v>3</v>
       </c>
-      <c r="O86" s="27">
+      <c r="O86" s="29">
         <v>3</v>
       </c>
-      <c r="P86" s="27" t="s">
+      <c r="P86" s="29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="42"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="44"/>
       <c r="L87" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M87" s="9">
         <v>0</v>
       </c>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
     </row>
     <row r="88" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="42"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="44"/>
       <c r="L88" s="23" t="s">
         <v>37</v>
       </c>
       <c r="M88" s="9">
         <v>1</v>
       </c>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
     </row>
     <row r="89" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="43"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="45"/>
       <c r="L89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M89" s="9">
         <v>0</v>
       </c>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
     </row>
     <row r="90" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="27">
+      <c r="A90" s="29">
         <v>24</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="29">
         <v>3</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27" t="s">
+      <c r="E90" s="29"/>
+      <c r="F90" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G90" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H90" s="27">
+      <c r="H90" s="29">
         <v>30</v>
       </c>
-      <c r="I90" s="27">
-        <v>1</v>
-      </c>
-      <c r="J90" s="27">
+      <c r="I90" s="29">
+        <v>1</v>
+      </c>
+      <c r="J90" s="29">
         <v>24</v>
       </c>
-      <c r="K90" s="41" t="s">
+      <c r="K90" s="43" t="s">
         <v>39</v>
       </c>
       <c r="L90" s="3" t="s">
@@ -4697,112 +4697,112 @@
       <c r="M90" s="9">
         <v>0</v>
       </c>
-      <c r="N90" s="27">
+      <c r="N90" s="29">
         <v>3</v>
       </c>
-      <c r="O90" s="27">
+      <c r="O90" s="29">
         <v>4</v>
       </c>
-      <c r="P90" s="27" t="s">
+      <c r="P90" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="42"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="44"/>
       <c r="L91" s="23" t="s">
         <v>41</v>
       </c>
       <c r="M91" s="9">
         <v>1</v>
       </c>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
     </row>
     <row r="92" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="42"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="44"/>
       <c r="L92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M92" s="9">
         <v>0</v>
       </c>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
     </row>
     <row r="93" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="43"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="45"/>
       <c r="L93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M93" s="9">
         <v>0</v>
       </c>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
     </row>
     <row r="94" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="27">
+      <c r="A94" s="29">
         <v>25</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94" s="29">
         <v>3</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27" t="s">
+      <c r="E94" s="29"/>
+      <c r="F94" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G94" s="27" t="s">
+      <c r="G94" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H94" s="27">
+      <c r="H94" s="29">
         <v>30</v>
       </c>
-      <c r="I94" s="27">
-        <v>1</v>
-      </c>
-      <c r="J94" s="27">
+      <c r="I94" s="29">
+        <v>1</v>
+      </c>
+      <c r="J94" s="29">
         <v>25</v>
       </c>
-      <c r="K94" s="41" t="s">
+      <c r="K94" s="43" t="s">
         <v>45</v>
       </c>
       <c r="L94" s="23" t="s">
@@ -4811,112 +4811,112 @@
       <c r="M94" s="9">
         <v>1</v>
       </c>
-      <c r="N94" s="27">
+      <c r="N94" s="29">
         <v>3</v>
       </c>
-      <c r="O94" s="27">
+      <c r="O94" s="29">
         <v>5</v>
       </c>
-      <c r="P94" s="32" t="s">
+      <c r="P94" s="36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="42"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="44"/>
       <c r="L95" s="23" t="s">
         <v>47</v>
       </c>
       <c r="M95" s="9">
         <v>1</v>
       </c>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="33"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="37"/>
     </row>
     <row r="96" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="42"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="44"/>
       <c r="L96" s="23" t="s">
         <v>48</v>
       </c>
       <c r="M96" s="9">
         <v>1</v>
       </c>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="33"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="37"/>
     </row>
     <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="43"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="45"/>
       <c r="L97" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M97" s="9">
         <v>0</v>
       </c>
-      <c r="N97" s="27"/>
-      <c r="O97" s="27"/>
-      <c r="P97" s="34"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="27">
+      <c r="A98" s="29">
         <v>26</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="29">
         <v>3</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D98" s="28" t="s">
+      <c r="D98" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="29" t="s">
+      <c r="E98" s="29"/>
+      <c r="F98" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="G98" s="28" t="s">
+      <c r="G98" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H98" s="27">
+      <c r="H98" s="29">
         <v>30</v>
       </c>
-      <c r="I98" s="27">
-        <v>1</v>
-      </c>
-      <c r="J98" s="27">
+      <c r="I98" s="29">
+        <v>1</v>
+      </c>
+      <c r="J98" s="29">
         <v>26</v>
       </c>
-      <c r="K98" s="30" t="s">
+      <c r="K98" s="46" t="s">
         <v>200</v>
       </c>
       <c r="L98" s="4" t="s">
@@ -4925,112 +4925,112 @@
       <c r="M98" s="9">
         <v>0</v>
       </c>
-      <c r="N98" s="27">
+      <c r="N98" s="29">
         <v>3</v>
       </c>
-      <c r="O98" s="27">
-        <v>1</v>
-      </c>
-      <c r="P98" s="27" t="s">
+      <c r="O98" s="29">
+        <v>1</v>
+      </c>
+      <c r="P98" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="30"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="46"/>
       <c r="L99" s="4" t="s">
         <v>201</v>
       </c>
       <c r="M99" s="9">
         <v>0</v>
       </c>
-      <c r="N99" s="27"/>
-      <c r="O99" s="27"/>
-      <c r="P99" s="27"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
     </row>
     <row r="100" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="30"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="46"/>
       <c r="L100" s="7" t="s">
         <v>202</v>
       </c>
       <c r="M100" s="9">
         <v>0</v>
       </c>
-      <c r="N100" s="27"/>
-      <c r="O100" s="27"/>
-      <c r="P100" s="27"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
     </row>
     <row r="101" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="30"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="46"/>
       <c r="L101" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M101" s="9">
         <v>1</v>
       </c>
-      <c r="N101" s="27"/>
-      <c r="O101" s="27"/>
-      <c r="P101" s="27"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
     </row>
     <row r="102" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="27">
+      <c r="A102" s="29">
         <v>27</v>
       </c>
-      <c r="B102" s="27">
+      <c r="B102" s="29">
         <v>3</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D102" s="28" t="s">
+      <c r="D102" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E102" s="27"/>
-      <c r="F102" s="29" t="s">
+      <c r="E102" s="29"/>
+      <c r="F102" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="28" t="s">
+      <c r="G102" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H102" s="27">
+      <c r="H102" s="29">
         <v>30</v>
       </c>
-      <c r="I102" s="27">
-        <v>1</v>
-      </c>
-      <c r="J102" s="27">
+      <c r="I102" s="29">
+        <v>1</v>
+      </c>
+      <c r="J102" s="29">
         <v>27</v>
       </c>
-      <c r="K102" s="30" t="s">
+      <c r="K102" s="46" t="s">
         <v>203</v>
       </c>
       <c r="L102" s="5" t="s">
@@ -5039,110 +5039,110 @@
       <c r="M102" s="9">
         <v>1</v>
       </c>
-      <c r="N102" s="27">
+      <c r="N102" s="29">
         <v>3</v>
       </c>
-      <c r="O102" s="27">
+      <c r="O102" s="29">
         <v>2</v>
       </c>
-      <c r="P102" s="27" t="s">
+      <c r="P102" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="30"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="46"/>
       <c r="L103" s="4" t="s">
         <v>176</v>
       </c>
       <c r="M103" s="9">
         <v>0</v>
       </c>
-      <c r="N103" s="27"/>
-      <c r="O103" s="27"/>
-      <c r="P103" s="27"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
     </row>
     <row r="104" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="30"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="46"/>
       <c r="L104" s="4" t="s">
         <v>193</v>
       </c>
       <c r="M104" s="9">
         <v>0</v>
       </c>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
-      <c r="P104" s="27"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
     </row>
     <row r="105" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="30"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="46"/>
       <c r="L105" s="7" t="s">
         <v>171</v>
       </c>
       <c r="M105" s="9">
         <v>0</v>
       </c>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
     </row>
     <row r="106" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="27">
+      <c r="A106" s="29">
         <v>28</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106" s="29">
         <v>3</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="E106" s="27"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="28" t="s">
+      <c r="E106" s="29"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="H106" s="27">
+      <c r="H106" s="29">
         <v>30</v>
       </c>
-      <c r="I106" s="27">
-        <v>1</v>
-      </c>
-      <c r="J106" s="27">
+      <c r="I106" s="29">
+        <v>1</v>
+      </c>
+      <c r="J106" s="29">
         <v>28</v>
       </c>
-      <c r="K106" s="31" t="s">
+      <c r="K106" s="47" t="s">
         <v>205</v>
       </c>
       <c r="L106" s="6" t="s">
@@ -5151,110 +5151,110 @@
       <c r="M106" s="9">
         <v>0</v>
       </c>
-      <c r="N106" s="27">
+      <c r="N106" s="29">
         <v>3</v>
       </c>
-      <c r="O106" s="27">
+      <c r="O106" s="29">
         <v>3</v>
       </c>
-      <c r="P106" s="27" t="s">
+      <c r="P106" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="31"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="47"/>
       <c r="L107" s="16" t="s">
         <v>207</v>
       </c>
       <c r="M107" s="9">
         <v>1</v>
       </c>
-      <c r="N107" s="27"/>
-      <c r="O107" s="27"/>
-      <c r="P107" s="27"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
     </row>
     <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="31"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="47"/>
       <c r="L108" s="6" t="s">
         <v>208</v>
       </c>
       <c r="M108" s="9">
         <v>0</v>
       </c>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
     </row>
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="31"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="47"/>
       <c r="L109" s="6" t="s">
         <v>209</v>
       </c>
       <c r="M109" s="9">
         <v>0</v>
       </c>
-      <c r="N109" s="27"/>
-      <c r="O109" s="27"/>
-      <c r="P109" s="27"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
     </row>
     <row r="110" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="27">
+      <c r="A110" s="29">
         <v>29</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110" s="29">
         <v>3</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D110" s="27" t="s">
+      <c r="D110" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27" t="s">
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H110" s="27">
+      <c r="H110" s="29">
         <v>30</v>
       </c>
-      <c r="I110" s="27">
-        <v>1</v>
-      </c>
-      <c r="J110" s="27">
+      <c r="I110" s="29">
+        <v>1</v>
+      </c>
+      <c r="J110" s="29">
         <v>29</v>
       </c>
-      <c r="K110" s="44" t="s">
+      <c r="K110" s="30" t="s">
         <v>80</v>
       </c>
       <c r="L110" s="24" t="s">
@@ -5263,110 +5263,110 @@
       <c r="M110" s="9">
         <v>0</v>
       </c>
-      <c r="N110" s="27">
+      <c r="N110" s="29">
         <v>3</v>
       </c>
-      <c r="O110" s="27">
+      <c r="O110" s="29">
         <v>4</v>
       </c>
-      <c r="P110" s="27" t="s">
+      <c r="P110" s="29" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="45"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="31"/>
       <c r="L111" s="24" t="s">
         <v>82</v>
       </c>
       <c r="M111" s="9">
         <v>0</v>
       </c>
-      <c r="N111" s="27"/>
-      <c r="O111" s="27"/>
-      <c r="P111" s="27"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
     </row>
     <row r="112" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="45"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="31"/>
       <c r="L112" s="24" t="s">
         <v>83</v>
       </c>
       <c r="M112" s="9">
         <v>0</v>
       </c>
-      <c r="N112" s="27"/>
-      <c r="O112" s="27"/>
-      <c r="P112" s="27"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
     </row>
     <row r="113" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="46"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="32"/>
       <c r="L113" s="23" t="s">
         <v>14</v>
       </c>
       <c r="M113" s="9">
         <v>1</v>
       </c>
-      <c r="N113" s="27"/>
-      <c r="O113" s="27"/>
-      <c r="P113" s="27"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
     </row>
     <row r="114" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="27">
+      <c r="A114" s="29">
         <v>30</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B114" s="29">
         <v>3</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D114" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27" t="s">
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H114" s="27">
+      <c r="H114" s="29">
         <v>30</v>
       </c>
-      <c r="I114" s="27">
-        <v>1</v>
-      </c>
-      <c r="J114" s="27">
+      <c r="I114" s="29">
+        <v>1</v>
+      </c>
+      <c r="J114" s="29">
         <v>30</v>
       </c>
-      <c r="K114" s="47" t="s">
+      <c r="K114" s="54" t="s">
         <v>84</v>
       </c>
       <c r="L114" s="25" t="s">
@@ -5375,112 +5375,112 @@
       <c r="M114" s="9">
         <v>0</v>
       </c>
-      <c r="N114" s="27">
+      <c r="N114" s="29">
         <v>3</v>
       </c>
-      <c r="O114" s="27">
+      <c r="O114" s="29">
         <v>5</v>
       </c>
-      <c r="P114" s="27" t="s">
+      <c r="P114" s="29" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="48"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="55"/>
       <c r="L115" s="22" t="s">
         <v>86</v>
       </c>
       <c r="M115" s="9">
         <v>1</v>
       </c>
-      <c r="N115" s="27"/>
-      <c r="O115" s="27"/>
-      <c r="P115" s="27"/>
+      <c r="N115" s="29"/>
+      <c r="O115" s="29"/>
+      <c r="P115" s="29"/>
     </row>
     <row r="116" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="48"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="55"/>
       <c r="L116" s="25" t="s">
         <v>87</v>
       </c>
       <c r="M116" s="9">
         <v>0</v>
       </c>
-      <c r="N116" s="27"/>
-      <c r="O116" s="27"/>
-      <c r="P116" s="27"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
     </row>
     <row r="117" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="49"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="56"/>
       <c r="L117" s="25" t="s">
         <v>88</v>
       </c>
       <c r="M117" s="9">
         <v>0</v>
       </c>
-      <c r="N117" s="27"/>
-      <c r="O117" s="27"/>
-      <c r="P117" s="27"/>
+      <c r="N117" s="29"/>
+      <c r="O117" s="29"/>
+      <c r="P117" s="29"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27">
+      <c r="A118" s="29">
         <v>31</v>
       </c>
-      <c r="B118" s="27">
+      <c r="B118" s="29">
         <v>4</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D118" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27" t="s">
+      <c r="E118" s="29"/>
+      <c r="F118" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G118" s="27" t="s">
+      <c r="G118" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H118" s="27">
+      <c r="H118" s="29">
         <v>30</v>
       </c>
-      <c r="I118" s="27">
-        <v>1</v>
-      </c>
-      <c r="J118" s="27">
+      <c r="I118" s="29">
+        <v>1</v>
+      </c>
+      <c r="J118" s="29">
         <v>31</v>
       </c>
-      <c r="K118" s="32" t="s">
+      <c r="K118" s="36" t="s">
         <v>50</v>
       </c>
       <c r="L118" s="8" t="s">
@@ -5489,112 +5489,112 @@
       <c r="M118" s="9">
         <v>1</v>
       </c>
-      <c r="N118" s="27">
+      <c r="N118" s="29">
         <v>4</v>
       </c>
-      <c r="O118" s="27">
-        <v>1</v>
-      </c>
-      <c r="P118" s="27" t="s">
+      <c r="O118" s="29">
+        <v>1</v>
+      </c>
+      <c r="P118" s="29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="33"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="37"/>
       <c r="L119" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M119" s="9">
         <v>1</v>
       </c>
-      <c r="N119" s="27"/>
-      <c r="O119" s="27"/>
-      <c r="P119" s="27"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="29"/>
+      <c r="P119" s="29"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="27"/>
-      <c r="K120" s="33"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="37"/>
       <c r="L120" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M120" s="9">
         <v>0</v>
       </c>
-      <c r="N120" s="27"/>
-      <c r="O120" s="27"/>
-      <c r="P120" s="27"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="29"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="34"/>
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="38"/>
       <c r="L121" s="17" t="s">
         <v>53</v>
       </c>
       <c r="M121" s="9">
         <v>0</v>
       </c>
-      <c r="N121" s="27"/>
-      <c r="O121" s="27"/>
-      <c r="P121" s="27"/>
+      <c r="N121" s="29"/>
+      <c r="O121" s="29"/>
+      <c r="P121" s="29"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="27">
+      <c r="A122" s="29">
         <v>32</v>
       </c>
-      <c r="B122" s="27">
+      <c r="B122" s="29">
         <v>4</v>
       </c>
-      <c r="C122" s="27" t="s">
+      <c r="C122" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D122" s="27" t="s">
+      <c r="D122" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27" t="s">
+      <c r="E122" s="29"/>
+      <c r="F122" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G122" s="27" t="s">
+      <c r="G122" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H122" s="27">
+      <c r="H122" s="29">
         <v>30</v>
       </c>
-      <c r="I122" s="27">
-        <v>1</v>
-      </c>
-      <c r="J122" s="27">
+      <c r="I122" s="29">
+        <v>1</v>
+      </c>
+      <c r="J122" s="29">
         <v>32</v>
       </c>
-      <c r="K122" s="32" t="s">
+      <c r="K122" s="36" t="s">
         <v>54</v>
       </c>
       <c r="L122" s="17" t="s">
@@ -5603,112 +5603,112 @@
       <c r="M122" s="9">
         <v>0</v>
       </c>
-      <c r="N122" s="27">
+      <c r="N122" s="29">
         <v>4</v>
       </c>
-      <c r="O122" s="27">
+      <c r="O122" s="29">
         <v>2</v>
       </c>
-      <c r="P122" s="27" t="s">
+      <c r="P122" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="33"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="37"/>
       <c r="L123" s="17" t="s">
         <v>162</v>
       </c>
       <c r="M123" s="9">
         <v>0</v>
       </c>
-      <c r="N123" s="27"/>
-      <c r="O123" s="27"/>
-      <c r="P123" s="27"/>
+      <c r="N123" s="29"/>
+      <c r="O123" s="29"/>
+      <c r="P123" s="29"/>
     </row>
     <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
-      <c r="K124" s="33"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="37"/>
       <c r="L124" s="17" t="s">
         <v>56</v>
       </c>
       <c r="M124" s="9">
         <v>0</v>
       </c>
-      <c r="N124" s="27"/>
-      <c r="O124" s="27"/>
-      <c r="P124" s="27"/>
+      <c r="N124" s="29"/>
+      <c r="O124" s="29"/>
+      <c r="P124" s="29"/>
     </row>
     <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="34"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="38"/>
       <c r="L125" s="8" t="s">
         <v>14</v>
       </c>
       <c r="M125" s="9">
         <v>1</v>
       </c>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
-      <c r="P125" s="27"/>
+      <c r="N125" s="29"/>
+      <c r="O125" s="29"/>
+      <c r="P125" s="29"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27">
+      <c r="A126" s="29">
         <v>33</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B126" s="29">
         <v>4</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="27" t="s">
+      <c r="D126" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27" t="s">
+      <c r="E126" s="29"/>
+      <c r="F126" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G126" s="27" t="s">
+      <c r="G126" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H126" s="27">
+      <c r="H126" s="29">
         <v>30</v>
       </c>
-      <c r="I126" s="27">
-        <v>1</v>
-      </c>
-      <c r="J126" s="27">
+      <c r="I126" s="29">
+        <v>1</v>
+      </c>
+      <c r="J126" s="29">
         <v>33</v>
       </c>
-      <c r="K126" s="32" t="s">
+      <c r="K126" s="36" t="s">
         <v>57</v>
       </c>
       <c r="L126" s="8" t="s">
@@ -5717,112 +5717,112 @@
       <c r="M126" s="9">
         <v>1</v>
       </c>
-      <c r="N126" s="27">
+      <c r="N126" s="29">
         <v>4</v>
       </c>
-      <c r="O126" s="27">
+      <c r="O126" s="29">
         <v>3</v>
       </c>
-      <c r="P126" s="27" t="s">
+      <c r="P126" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
-      <c r="K127" s="33"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="37"/>
       <c r="L127" s="17" t="s">
         <v>59</v>
       </c>
       <c r="M127" s="9">
         <v>0</v>
       </c>
-      <c r="N127" s="27"/>
-      <c r="O127" s="27"/>
-      <c r="P127" s="27"/>
+      <c r="N127" s="29"/>
+      <c r="O127" s="29"/>
+      <c r="P127" s="29"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
-      <c r="K128" s="33"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="37"/>
       <c r="L128" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M128" s="9">
         <v>0</v>
       </c>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
-      <c r="P128" s="27"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="29"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="27"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="34"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="38"/>
       <c r="L129" s="17" t="s">
         <v>60</v>
       </c>
       <c r="M129" s="9">
         <v>0</v>
       </c>
-      <c r="N129" s="27"/>
-      <c r="O129" s="27"/>
-      <c r="P129" s="27"/>
+      <c r="N129" s="29"/>
+      <c r="O129" s="29"/>
+      <c r="P129" s="29"/>
     </row>
     <row r="130" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="27">
+      <c r="A130" s="29">
         <v>34</v>
       </c>
-      <c r="B130" s="27">
+      <c r="B130" s="29">
         <v>4</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27" t="s">
+      <c r="E130" s="29"/>
+      <c r="F130" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G130" s="27" t="s">
+      <c r="G130" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H130" s="27">
+      <c r="H130" s="29">
         <v>30</v>
       </c>
-      <c r="I130" s="27">
-        <v>1</v>
-      </c>
-      <c r="J130" s="27">
+      <c r="I130" s="29">
+        <v>1</v>
+      </c>
+      <c r="J130" s="29">
         <v>34</v>
       </c>
-      <c r="K130" s="38" t="s">
+      <c r="K130" s="33" t="s">
         <v>144</v>
       </c>
       <c r="L130" s="24" t="s">
@@ -5831,112 +5831,112 @@
       <c r="M130" s="9">
         <v>0</v>
       </c>
-      <c r="N130" s="27">
+      <c r="N130" s="29">
         <v>4</v>
       </c>
-      <c r="O130" s="27">
+      <c r="O130" s="29">
         <v>4</v>
       </c>
-      <c r="P130" s="27" t="s">
+      <c r="P130" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="39"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="49"/>
       <c r="L131" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M131" s="9">
         <v>0</v>
       </c>
-      <c r="N131" s="27"/>
-      <c r="O131" s="27"/>
-      <c r="P131" s="27"/>
+      <c r="N131" s="29"/>
+      <c r="O131" s="29"/>
+      <c r="P131" s="29"/>
     </row>
     <row r="132" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="39"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="49"/>
       <c r="L132" s="23" t="s">
         <v>61</v>
       </c>
       <c r="M132" s="9">
         <v>1</v>
       </c>
-      <c r="N132" s="27"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="27"/>
+      <c r="N132" s="29"/>
+      <c r="O132" s="29"/>
+      <c r="P132" s="29"/>
     </row>
     <row r="133" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
-      <c r="K133" s="40"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="50"/>
       <c r="L133" s="24" t="s">
         <v>62</v>
       </c>
       <c r="M133" s="9">
         <v>0</v>
       </c>
-      <c r="N133" s="27"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="27"/>
+      <c r="N133" s="29"/>
+      <c r="O133" s="29"/>
+      <c r="P133" s="29"/>
     </row>
     <row r="134" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="27">
+      <c r="A134" s="29">
         <v>35</v>
       </c>
-      <c r="B134" s="27">
+      <c r="B134" s="29">
         <v>4</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D134" s="27" t="s">
+      <c r="D134" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27" t="s">
+      <c r="E134" s="29"/>
+      <c r="F134" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G134" s="27" t="s">
+      <c r="G134" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H134" s="27">
+      <c r="H134" s="29">
         <v>30</v>
       </c>
-      <c r="I134" s="27">
-        <v>1</v>
-      </c>
-      <c r="J134" s="27">
+      <c r="I134" s="29">
+        <v>1</v>
+      </c>
+      <c r="J134" s="29">
         <v>35</v>
       </c>
-      <c r="K134" s="38" t="s">
+      <c r="K134" s="33" t="s">
         <v>64</v>
       </c>
       <c r="L134" s="23" t="s">
@@ -5945,110 +5945,110 @@
       <c r="M134" s="9">
         <v>1</v>
       </c>
-      <c r="N134" s="27">
+      <c r="N134" s="29">
         <v>4</v>
       </c>
-      <c r="O134" s="27">
+      <c r="O134" s="29">
         <v>5</v>
       </c>
-      <c r="P134" s="27" t="s">
+      <c r="P134" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="27"/>
-      <c r="K135" s="39"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="49"/>
       <c r="L135" s="3" t="s">
         <v>66</v>
       </c>
       <c r="M135" s="9">
         <v>0</v>
       </c>
-      <c r="N135" s="27"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="27"/>
+      <c r="N135" s="29"/>
+      <c r="O135" s="29"/>
+      <c r="P135" s="29"/>
     </row>
     <row r="136" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="27"/>
-      <c r="K136" s="39"/>
+      <c r="A136" s="29"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="49"/>
       <c r="L136" s="3" t="s">
         <v>151</v>
       </c>
       <c r="M136" s="9">
         <v>0</v>
       </c>
-      <c r="N136" s="27"/>
-      <c r="O136" s="27"/>
-      <c r="P136" s="27"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="29"/>
+      <c r="P136" s="29"/>
     </row>
     <row r="137" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="40"/>
+      <c r="A137" s="29"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="50"/>
       <c r="L137" s="24" t="s">
         <v>67</v>
       </c>
       <c r="M137" s="9">
         <v>0</v>
       </c>
-      <c r="N137" s="27"/>
-      <c r="O137" s="27"/>
-      <c r="P137" s="27"/>
+      <c r="N137" s="29"/>
+      <c r="O137" s="29"/>
+      <c r="P137" s="29"/>
     </row>
     <row r="138" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="27">
+      <c r="A138" s="29">
         <v>36</v>
       </c>
-      <c r="B138" s="27">
+      <c r="B138" s="29">
         <v>4</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D138" s="27" t="s">
+      <c r="D138" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="26" t="s">
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="H138" s="26">
+      <c r="H138" s="48">
         <v>30</v>
       </c>
-      <c r="I138" s="26">
-        <v>0</v>
-      </c>
-      <c r="J138" s="26">
-        <v>0</v>
-      </c>
-      <c r="K138" s="35" t="s">
+      <c r="I138" s="48">
+        <v>0</v>
+      </c>
+      <c r="J138" s="48">
+        <v>0</v>
+      </c>
+      <c r="K138" s="51" t="s">
         <v>89</v>
       </c>
       <c r="L138" s="21" t="s">
@@ -6057,110 +6057,110 @@
       <c r="M138" s="20">
         <v>1</v>
       </c>
-      <c r="N138" s="26">
+      <c r="N138" s="48">
         <v>4</v>
       </c>
-      <c r="O138" s="26">
-        <v>1</v>
-      </c>
-      <c r="P138" s="26" t="s">
+      <c r="O138" s="48">
+        <v>1</v>
+      </c>
+      <c r="P138" s="48" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="26"/>
-      <c r="K139" s="36"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="48"/>
+      <c r="J139" s="48"/>
+      <c r="K139" s="52"/>
       <c r="L139" s="19" t="s">
         <v>91</v>
       </c>
       <c r="M139" s="20">
         <v>0</v>
       </c>
-      <c r="N139" s="26"/>
-      <c r="O139" s="26"/>
-      <c r="P139" s="26"/>
+      <c r="N139" s="48"/>
+      <c r="O139" s="48"/>
+      <c r="P139" s="48"/>
     </row>
     <row r="140" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="26"/>
-      <c r="K140" s="36"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="48"/>
+      <c r="J140" s="48"/>
+      <c r="K140" s="52"/>
       <c r="L140" s="19" t="s">
         <v>92</v>
       </c>
       <c r="M140" s="20">
         <v>0</v>
       </c>
-      <c r="N140" s="26"/>
-      <c r="O140" s="26"/>
-      <c r="P140" s="26"/>
+      <c r="N140" s="48"/>
+      <c r="O140" s="48"/>
+      <c r="P140" s="48"/>
     </row>
     <row r="141" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="26"/>
-      <c r="K141" s="37"/>
+      <c r="A141" s="29"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="48"/>
+      <c r="J141" s="48"/>
+      <c r="K141" s="53"/>
       <c r="L141" s="19" t="s">
         <v>93</v>
       </c>
       <c r="M141" s="20">
         <v>0</v>
       </c>
-      <c r="N141" s="26"/>
-      <c r="O141" s="26"/>
-      <c r="P141" s="26"/>
+      <c r="N141" s="48"/>
+      <c r="O141" s="48"/>
+      <c r="P141" s="48"/>
     </row>
     <row r="142" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="27">
+      <c r="A142" s="29">
         <v>37</v>
       </c>
-      <c r="B142" s="27">
+      <c r="B142" s="29">
         <v>4</v>
       </c>
-      <c r="C142" s="27" t="s">
+      <c r="C142" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D142" s="27" t="s">
+      <c r="D142" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="26" t="s">
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="H142" s="26">
+      <c r="H142" s="48">
         <v>30</v>
       </c>
-      <c r="I142" s="26">
-        <v>0</v>
-      </c>
-      <c r="J142" s="26">
-        <v>0</v>
-      </c>
-      <c r="K142" s="35" t="s">
+      <c r="I142" s="48">
+        <v>0</v>
+      </c>
+      <c r="J142" s="48">
+        <v>0</v>
+      </c>
+      <c r="K142" s="51" t="s">
         <v>94</v>
       </c>
       <c r="L142" s="19" t="s">
@@ -6169,112 +6169,112 @@
       <c r="M142" s="20">
         <v>0</v>
       </c>
-      <c r="N142" s="26">
+      <c r="N142" s="48">
         <v>4</v>
       </c>
-      <c r="O142" s="26">
+      <c r="O142" s="48">
         <v>2</v>
       </c>
-      <c r="P142" s="26" t="s">
+      <c r="P142" s="48" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="36"/>
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="48"/>
+      <c r="J143" s="48"/>
+      <c r="K143" s="52"/>
       <c r="L143" s="19" t="s">
         <v>96</v>
       </c>
       <c r="M143" s="20">
         <v>0</v>
       </c>
-      <c r="N143" s="26"/>
-      <c r="O143" s="26"/>
-      <c r="P143" s="26"/>
+      <c r="N143" s="48"/>
+      <c r="O143" s="48"/>
+      <c r="P143" s="48"/>
     </row>
     <row r="144" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="26"/>
-      <c r="K144" s="36"/>
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="48"/>
+      <c r="J144" s="48"/>
+      <c r="K144" s="52"/>
       <c r="L144" s="21" t="s">
         <v>97</v>
       </c>
       <c r="M144" s="20">
         <v>1</v>
       </c>
-      <c r="N144" s="26"/>
-      <c r="O144" s="26"/>
-      <c r="P144" s="26"/>
+      <c r="N144" s="48"/>
+      <c r="O144" s="48"/>
+      <c r="P144" s="48"/>
     </row>
     <row r="145" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="26"/>
-      <c r="K145" s="37"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="48"/>
+      <c r="J145" s="48"/>
+      <c r="K145" s="53"/>
       <c r="L145" s="19" t="s">
         <v>98</v>
       </c>
       <c r="M145" s="20">
         <v>0</v>
       </c>
-      <c r="N145" s="26"/>
-      <c r="O145" s="26"/>
-      <c r="P145" s="26"/>
+      <c r="N145" s="48"/>
+      <c r="O145" s="48"/>
+      <c r="P145" s="48"/>
     </row>
     <row r="146" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="27">
+      <c r="A146" s="29">
         <v>38</v>
       </c>
-      <c r="B146" s="27">
+      <c r="B146" s="29">
         <v>4</v>
       </c>
-      <c r="C146" s="29" t="s">
+      <c r="C146" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="D146" s="28" t="s">
+      <c r="D146" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="E146" s="27"/>
-      <c r="F146" s="29" t="s">
+      <c r="E146" s="29"/>
+      <c r="F146" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G146" s="28" t="s">
+      <c r="G146" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H146" s="27">
+      <c r="H146" s="29">
         <v>30</v>
       </c>
-      <c r="I146" s="27">
-        <v>0</v>
-      </c>
-      <c r="J146" s="27">
+      <c r="I146" s="29">
+        <v>1</v>
+      </c>
+      <c r="J146" s="29">
         <v>36</v>
       </c>
-      <c r="K146" s="30" t="s">
+      <c r="K146" s="46" t="s">
         <v>214</v>
       </c>
       <c r="L146" s="18" t="s">
@@ -6283,112 +6283,112 @@
       <c r="M146" s="17">
         <v>0</v>
       </c>
-      <c r="N146" s="27">
+      <c r="N146" s="29">
         <v>4</v>
       </c>
-      <c r="O146" s="27">
+      <c r="O146" s="29">
         <v>3</v>
       </c>
-      <c r="P146" s="27" t="s">
+      <c r="P146" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="33" x14ac:dyDescent="0.2">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="30"/>
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="46"/>
       <c r="L147" s="18" t="s">
         <v>216</v>
       </c>
       <c r="M147" s="17">
         <v>0</v>
       </c>
-      <c r="N147" s="27"/>
-      <c r="O147" s="27"/>
-      <c r="P147" s="27"/>
+      <c r="N147" s="29"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="29"/>
     </row>
     <row r="148" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="30"/>
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="46"/>
       <c r="L148" s="18" t="s">
         <v>217</v>
       </c>
       <c r="M148" s="17">
         <v>0</v>
       </c>
-      <c r="N148" s="27"/>
-      <c r="O148" s="27"/>
-      <c r="P148" s="27"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="29"/>
     </row>
     <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="30"/>
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29"/>
+      <c r="K149" s="46"/>
       <c r="L149" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M149" s="17">
         <v>1</v>
       </c>
-      <c r="N149" s="27"/>
-      <c r="O149" s="27"/>
-      <c r="P149" s="27"/>
+      <c r="N149" s="29"/>
+      <c r="O149" s="29"/>
+      <c r="P149" s="29"/>
     </row>
     <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="27">
+      <c r="A150" s="29">
         <v>39</v>
       </c>
-      <c r="B150" s="27">
+      <c r="B150" s="29">
         <v>4</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C150" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="D150" s="28" t="s">
+      <c r="D150" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E150" s="27"/>
-      <c r="F150" s="29" t="s">
+      <c r="E150" s="29"/>
+      <c r="F150" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G150" s="28" t="s">
+      <c r="G150" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H150" s="27">
+      <c r="H150" s="29">
         <v>30</v>
       </c>
-      <c r="I150" s="27">
-        <v>1</v>
-      </c>
-      <c r="J150" s="27">
+      <c r="I150" s="29">
+        <v>1</v>
+      </c>
+      <c r="J150" s="29">
         <v>37</v>
       </c>
-      <c r="K150" s="30" t="s">
+      <c r="K150" s="46" t="s">
         <v>224</v>
       </c>
       <c r="L150" s="18" t="s">
@@ -6397,112 +6397,112 @@
       <c r="M150" s="17">
         <v>0</v>
       </c>
-      <c r="N150" s="27">
+      <c r="N150" s="29">
         <v>4</v>
       </c>
-      <c r="O150" s="27">
+      <c r="O150" s="29">
         <v>4</v>
       </c>
-      <c r="P150" s="27" t="s">
+      <c r="P150" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="28"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="30"/>
+      <c r="A151" s="29"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="29"/>
+      <c r="K151" s="46"/>
       <c r="L151" s="18" t="s">
         <v>218</v>
       </c>
       <c r="M151" s="17">
         <v>0</v>
       </c>
-      <c r="N151" s="27"/>
-      <c r="O151" s="27"/>
-      <c r="P151" s="27"/>
+      <c r="N151" s="29"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="29"/>
     </row>
     <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="30"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="29"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="46"/>
       <c r="L152" s="5" t="s">
         <v>219</v>
       </c>
       <c r="M152" s="17">
         <v>1</v>
       </c>
-      <c r="N152" s="27"/>
-      <c r="O152" s="27"/>
-      <c r="P152" s="27"/>
+      <c r="N152" s="29"/>
+      <c r="O152" s="29"/>
+      <c r="P152" s="29"/>
     </row>
     <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="27"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="30"/>
+      <c r="A153" s="29"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="46"/>
       <c r="L153" s="18" t="s">
         <v>220</v>
       </c>
       <c r="M153" s="17">
         <v>0</v>
       </c>
-      <c r="N153" s="27"/>
-      <c r="O153" s="27"/>
-      <c r="P153" s="27"/>
+      <c r="N153" s="29"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="29"/>
     </row>
     <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="27">
+      <c r="A154" s="29">
         <v>40</v>
       </c>
-      <c r="B154" s="27">
+      <c r="B154" s="29">
         <v>4</v>
       </c>
-      <c r="C154" s="29" t="s">
+      <c r="C154" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="D154" s="28" t="s">
+      <c r="D154" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E154" s="27"/>
-      <c r="F154" s="29" t="s">
+      <c r="E154" s="29"/>
+      <c r="F154" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G154" s="28" t="s">
+      <c r="G154" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="H154" s="27">
+      <c r="H154" s="29">
         <v>30</v>
       </c>
-      <c r="I154" s="27">
-        <v>1</v>
-      </c>
-      <c r="J154" s="27">
+      <c r="I154" s="29">
+        <v>1</v>
+      </c>
+      <c r="J154" s="29">
         <v>38</v>
       </c>
-      <c r="K154" s="30" t="s">
+      <c r="K154" s="46" t="s">
         <v>221</v>
       </c>
       <c r="L154" s="4" t="s">
@@ -6511,85 +6511,621 @@
       <c r="M154" s="9">
         <v>0</v>
       </c>
-      <c r="N154" s="27">
+      <c r="N154" s="29">
         <v>4</v>
       </c>
-      <c r="O154" s="27">
+      <c r="O154" s="29">
         <v>5</v>
       </c>
-      <c r="P154" s="27" t="s">
+      <c r="P154" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="30"/>
+      <c r="A155" s="29"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="46"/>
       <c r="L155" s="4" t="s">
         <v>222</v>
       </c>
       <c r="M155" s="9">
         <v>0</v>
       </c>
-      <c r="N155" s="27"/>
-      <c r="O155" s="27"/>
-      <c r="P155" s="27"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="29"/>
     </row>
     <row r="156" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="27"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="30"/>
+      <c r="A156" s="29"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="34"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="46"/>
       <c r="L156" s="4" t="s">
         <v>223</v>
       </c>
       <c r="M156" s="9">
         <v>0</v>
       </c>
-      <c r="N156" s="27"/>
-      <c r="O156" s="27"/>
-      <c r="P156" s="27"/>
+      <c r="N156" s="29"/>
+      <c r="O156" s="29"/>
+      <c r="P156" s="29"/>
     </row>
     <row r="157" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="27"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="30"/>
+      <c r="A157" s="29"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="34"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="34"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="46"/>
       <c r="L157" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M157" s="9">
         <v>1</v>
       </c>
-      <c r="N157" s="27"/>
-      <c r="O157" s="27"/>
-      <c r="P157" s="27"/>
+      <c r="N157" s="29"/>
+      <c r="O157" s="29"/>
+      <c r="P157" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P157"/>
   <mergeCells count="560">
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N60:N63"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="N68:N71"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="J82:J85"/>
+    <mergeCell ref="J86:J89"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="J94:J97"/>
+    <mergeCell ref="J98:J101"/>
+    <mergeCell ref="J102:J105"/>
+    <mergeCell ref="J106:J109"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="I82:I85"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="I98:I101"/>
+    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="I106:I109"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="H106:H109"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="G154:G157"/>
+    <mergeCell ref="F154:F157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="H154:H157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="F150:F153"/>
+    <mergeCell ref="G150:G153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="H150:H153"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F149"/>
+    <mergeCell ref="G146:G149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="K98:K101"/>
+    <mergeCell ref="K102:K105"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="O82:O85"/>
+    <mergeCell ref="O86:O89"/>
+    <mergeCell ref="O56:O59"/>
+    <mergeCell ref="O78:O81"/>
+    <mergeCell ref="K94:K97"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="K82:K85"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="P22:P25"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="P110:P113"/>
+    <mergeCell ref="P114:P117"/>
+    <mergeCell ref="P154:P157"/>
+    <mergeCell ref="P146:P149"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="P56:P59"/>
+    <mergeCell ref="P60:P63"/>
+    <mergeCell ref="P64:P67"/>
+    <mergeCell ref="P68:P71"/>
+    <mergeCell ref="P138:P141"/>
+    <mergeCell ref="P78:P81"/>
+    <mergeCell ref="P82:P85"/>
+    <mergeCell ref="P86:P89"/>
+    <mergeCell ref="P90:P93"/>
+    <mergeCell ref="P94:P97"/>
+    <mergeCell ref="P118:P121"/>
+    <mergeCell ref="P122:P125"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="P98:P101"/>
+    <mergeCell ref="P102:P105"/>
+    <mergeCell ref="P106:P109"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="P130:P133"/>
+    <mergeCell ref="P134:P137"/>
+    <mergeCell ref="P142:P145"/>
+    <mergeCell ref="P150:P153"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="O138:O141"/>
+    <mergeCell ref="O142:O145"/>
+    <mergeCell ref="O146:O149"/>
+    <mergeCell ref="O130:O133"/>
+    <mergeCell ref="O134:O137"/>
+    <mergeCell ref="N138:N141"/>
+    <mergeCell ref="N142:N145"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="O122:O125"/>
+    <mergeCell ref="O60:O63"/>
+    <mergeCell ref="O64:O67"/>
+    <mergeCell ref="O68:O71"/>
+    <mergeCell ref="O98:O101"/>
+    <mergeCell ref="O102:O105"/>
+    <mergeCell ref="O106:O109"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="O154:O157"/>
+    <mergeCell ref="O110:O113"/>
+    <mergeCell ref="O114:O117"/>
+    <mergeCell ref="O72:O75"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="N118:N121"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="O90:O93"/>
+    <mergeCell ref="O94:O97"/>
+    <mergeCell ref="O118:O121"/>
+    <mergeCell ref="O150:O153"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="N130:N133"/>
+    <mergeCell ref="N134:N137"/>
+    <mergeCell ref="N56:N59"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="F142:F145"/>
+    <mergeCell ref="G142:G145"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="K106:K109"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="K60:K63"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I22:I25"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="H34:H37"/>
@@ -6614,542 +7150,6 @@
     <mergeCell ref="K34:K37"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="K56:K59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="K60:K63"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J56:J59"/>
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="K106:K109"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J130:J133"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="H134:H137"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="F142:F145"/>
-    <mergeCell ref="G142:G145"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="K134:K137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="J134:J137"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="N130:N133"/>
-    <mergeCell ref="N134:N137"/>
-    <mergeCell ref="N56:N59"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="O122:O125"/>
-    <mergeCell ref="O60:O63"/>
-    <mergeCell ref="O64:O67"/>
-    <mergeCell ref="O68:O71"/>
-    <mergeCell ref="O98:O101"/>
-    <mergeCell ref="O102:O105"/>
-    <mergeCell ref="O106:O109"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="O154:O157"/>
-    <mergeCell ref="O110:O113"/>
-    <mergeCell ref="O114:O117"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="N118:N121"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="O126:O129"/>
-    <mergeCell ref="O90:O93"/>
-    <mergeCell ref="O94:O97"/>
-    <mergeCell ref="O118:O121"/>
-    <mergeCell ref="O150:O153"/>
-    <mergeCell ref="P134:P137"/>
-    <mergeCell ref="P142:P145"/>
-    <mergeCell ref="P150:P153"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="O138:O141"/>
-    <mergeCell ref="O142:O145"/>
-    <mergeCell ref="O146:O149"/>
-    <mergeCell ref="O130:O133"/>
-    <mergeCell ref="O134:O137"/>
-    <mergeCell ref="N138:N141"/>
-    <mergeCell ref="N142:N145"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="I130:I133"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="K142:K145"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="K130:K133"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="P110:P113"/>
-    <mergeCell ref="P114:P117"/>
-    <mergeCell ref="P154:P157"/>
-    <mergeCell ref="P146:P149"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="P56:P59"/>
-    <mergeCell ref="P60:P63"/>
-    <mergeCell ref="P64:P67"/>
-    <mergeCell ref="P68:P71"/>
-    <mergeCell ref="P138:P141"/>
-    <mergeCell ref="P78:P81"/>
-    <mergeCell ref="P82:P85"/>
-    <mergeCell ref="P86:P89"/>
-    <mergeCell ref="P90:P93"/>
-    <mergeCell ref="P94:P97"/>
-    <mergeCell ref="P118:P121"/>
-    <mergeCell ref="P122:P125"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="P98:P101"/>
-    <mergeCell ref="P102:P105"/>
-    <mergeCell ref="P106:P109"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="P130:P133"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="P22:P25"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="K98:K101"/>
-    <mergeCell ref="K102:K105"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="O30:O33"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="O82:O85"/>
-    <mergeCell ref="O86:O89"/>
-    <mergeCell ref="O56:O59"/>
-    <mergeCell ref="O78:O81"/>
-    <mergeCell ref="K94:K97"/>
-    <mergeCell ref="K90:K93"/>
-    <mergeCell ref="K86:K89"/>
-    <mergeCell ref="K82:K85"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F149"/>
-    <mergeCell ref="G146:G149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="G154:G157"/>
-    <mergeCell ref="F154:F157"/>
-    <mergeCell ref="K154:K157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="H154:H157"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="F150:F153"/>
-    <mergeCell ref="G150:G153"/>
-    <mergeCell ref="K150:K153"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="H150:H153"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="H106:H109"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="I82:I85"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="I90:I93"/>
-    <mergeCell ref="I94:I97"/>
-    <mergeCell ref="I98:I101"/>
-    <mergeCell ref="I102:I105"/>
-    <mergeCell ref="I106:I109"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N60:N63"/>
-    <mergeCell ref="N64:N67"/>
-    <mergeCell ref="N68:N71"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="J82:J85"/>
-    <mergeCell ref="J86:J89"/>
-    <mergeCell ref="J90:J93"/>
-    <mergeCell ref="J94:J97"/>
-    <mergeCell ref="J98:J101"/>
-    <mergeCell ref="J102:J105"/>
-    <mergeCell ref="J106:J109"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="K114:K117"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
